--- a/Dokumente/CCT_ToDoListe.xlsx
+++ b/Dokumente/CCT_ToDoListe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTL_Leonding\A_Daten\SYP\CCT\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\edufs.edu.htl-leonding.ac.at\7acifall\SYP\CCT\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D208CABE-5D6C-429A-BAF5-BB509F165F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8196BE-0B10-4FCD-85D7-CFCCE9156897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aktionsliste offen" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Aktionsliste offen'!$A:$E</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Aktionsliste offen'!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -1322,7 +1322,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D1" s="21">
         <f ca="1">TODAY()</f>
-        <v>44098</v>
+        <v>44104</v>
       </c>
       <c r="E1" s="22"/>
     </row>
@@ -1433,7 +1433,7 @@
         <v>44104</v>
       </c>
       <c r="E7" s="16">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1769,7 +1769,7 @@
       <c r="A6" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
+  <sortState ref="A2:A6">
     <sortCondition ref="A2:A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
